--- a/src/main/resources/exel/Manage.xlsx
+++ b/src/main/resources/exel/Manage.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="32">
   <si>
     <t>이름</t>
   </si>
@@ -112,6 +112,27 @@
   </si>
   <si>
     <t>new york</t>
+  </si>
+  <si>
+    <t>Ayoung You</t>
+  </si>
+  <si>
+    <t>010-5719-4778</t>
+  </si>
+  <si>
+    <t>내 집</t>
+  </si>
+  <si>
+    <t>463 sherbourne road, ottawa, ontario, canada</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>beijing</t>
+  </si>
+  <si>
+    <t>저장대학교</t>
   </si>
 </sst>
 </file>
@@ -509,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA95C06-7A65-4B9E-B40B-20DA95F0278D}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G4" sqref="A2:G4"/>
@@ -595,6 +616,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -602,7 +646,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E545AD-FFAD-4012-B3DC-1D67EF7D00F8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -647,6 +691,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/exel/Manage.xlsx
+++ b/src/main/resources/exel/Manage.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e013e576aa07c75d/Documents/employee-manage-system/src/main/resources/exel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{F10CBD98-A95A-4505-8720-3AAA605BD965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83454AB5-4D69-4A4A-9B68-55121376882A}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{F10CBD98-A95A-4505-8720-3AAA605BD965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EDC64A9-50CB-4762-91F1-8343DC401728}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{52A09B2F-3E8F-40E9-986C-B4E278D7CC3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{52A09B2F-3E8F-40E9-986C-B4E278D7CC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
     <sheet name="Location" sheetId="2" r:id="rId2"/>
+    <sheet name="Project" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>이름</t>
   </si>
@@ -60,9 +61,6 @@
     <t>비고</t>
   </si>
   <si>
-    <t>Taeyoung You</t>
-  </si>
-  <si>
     <t>001218</t>
   </si>
   <si>
@@ -72,74 +70,46 @@
     <t/>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>인턴</t>
   </si>
   <si>
     <t>arnold4778@gmail.com</t>
   </si>
   <si>
-    <t>Seoyoung You</t>
-  </si>
-  <si>
-    <t>030416</t>
-  </si>
-  <si>
-    <t>010-5718-4778</t>
-  </si>
-  <si>
     <t>지점</t>
   </si>
   <si>
     <t>주소</t>
   </si>
   <si>
-    <t>Ottawa</t>
-  </si>
-  <si>
-    <t>ottawa paliament hill</t>
-  </si>
-  <si>
-    <t>Seoul</t>
-  </si>
-  <si>
-    <t>서울 시청</t>
-  </si>
-  <si>
-    <t>U.S.A</t>
-  </si>
-  <si>
-    <t>new york</t>
-  </si>
-  <si>
-    <t>Ayoung You</t>
-  </si>
-  <si>
-    <t>010-5719-4778</t>
-  </si>
-  <si>
-    <t>내 집</t>
-  </si>
-  <si>
-    <t>463 sherbourne road, ottawa, ontario, canada</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>beijing</t>
-  </si>
-  <si>
-    <t>저장대학교</t>
+    <t>프로젝트 이름</t>
+  </si>
+  <si>
+    <t>시작 날짜</t>
+  </si>
+  <si>
+    <t>종료 날짜</t>
+  </si>
+  <si>
+    <t>직원</t>
+  </si>
+  <si>
+    <t>Taeyoung</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>카나타</t>
+  </si>
+  <si>
+    <t>kanata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,7 +135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +170,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA95C06-7A65-4B9E-B40B-20DA95F0278D}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G4" sqref="A2:G4"/>
@@ -538,13 +517,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.375"/>
-    <col min="2" max="2" customWidth="true" style="1" width="13.25"/>
-    <col min="3" max="3" customWidth="true" style="1" width="20.25"/>
-    <col min="4" max="4" customWidth="true" style="1" width="28.5"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.125"/>
-    <col min="6" max="6" customWidth="true" style="1" width="14.375"/>
-    <col min="7" max="7" customWidth="true" style="1" width="77.875"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="77.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -570,73 +549,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="1">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s" s="1">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -646,65 +579,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E545AD-FFAD-4012-B3DC-1D67EF7D00F8}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="42.125"/>
-    <col min="2" max="2" customWidth="true" style="3" width="64.0"/>
-    <col min="3" max="16384" style="3" width="9.0"/>
+    <col min="1" max="1" width="42.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDAF18B-F349-43D4-978F-E1B991A6C84A}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="17.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/exel/Manage.xlsx
+++ b/src/main/resources/exel/Manage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e013e576aa07c75d/Documents/employee-manage-system/src/main/resources/exel/"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="39">
   <si>
     <t>이름</t>
   </si>
@@ -104,12 +104,64 @@
   </si>
   <si>
     <t>kanata</t>
+  </si>
+  <si>
+    <t>Test01</t>
+  </si>
+  <si>
+    <t>2024-08-03</t>
+  </si>
+  <si>
+    <t>2024-08-22</t>
+  </si>
+  <si>
+    <t>Test02</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>Seoyoung</t>
+  </si>
+  <si>
+    <t>030416</t>
+  </si>
+  <si>
+    <t>010-5718-4778</t>
+  </si>
+  <si>
+    <t>seoyoung.you@gmail.com</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>이메일이 맞는 지 모르겠음</t>
+  </si>
+  <si>
+    <t>Ayoung</t>
+  </si>
+  <si>
+    <t>010-5719-4778</t>
+  </si>
+  <si>
+    <t>이메일 부재</t>
+  </si>
+  <si>
+    <t>첫 프로젝트</t>
+  </si>
+  <si>
+    <t>알바 충원</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA95C06-7A65-4B9E-B40B-20DA95F0278D}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G4" sqref="A2:G4"/>
@@ -517,13 +569,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="77.875" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.375"/>
+    <col min="2" max="2" customWidth="true" style="1" width="13.25"/>
+    <col min="3" max="3" customWidth="true" style="1" width="20.25"/>
+    <col min="4" max="4" customWidth="true" style="1" width="28.5"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.125"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.375"/>
+    <col min="7" max="7" customWidth="true" style="1" width="77.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -549,27 +601,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -587,9 +685,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="64" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="42.125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="64.0"/>
+    <col min="3" max="16384" style="3" width="9.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -600,11 +698,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="3">
         <v>21</v>
       </c>
     </row>
@@ -615,7 +713,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDAF18B-F349-43D4-978F-E1B991A6C84A}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
@@ -623,7 +721,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="17.875" style="3"/>
+    <col min="1" max="16384" style="3" width="17.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -643,6 +741,49 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s" s="3">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
